--- a/data/campeonato_12_1.xlsx
+++ b/data/campeonato_12_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="65">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -83,55 +83,109 @@
     <t>1/1/2022</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>7:5</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>4:6</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>5:1</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>7:5</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>3:3</t>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>1:5</t>
   </si>
   <si>
     <t>3:1</t>
@@ -140,16 +194,10 @@
     <t>2:5</t>
   </si>
   <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>4:6</t>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
   <si>
     <t>2:4</t>
@@ -158,61 +206,10 @@
     <t>6:5</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>3:6</t>
-  </si>
-  <si>
-    <t>2:8</t>
-  </si>
-  <si>
-    <t>4:5</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>0:0</t>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>1:7</t>
   </si>
 </sst>
 </file>
@@ -575,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -592,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -609,10 +606,10 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -626,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -643,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -660,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -677,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -694,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -711,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -728,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -745,10 +742,10 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -762,10 +759,10 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +805,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -822,10 +819,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -836,10 +833,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -850,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -864,10 +861,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -881,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -911,13 +908,13 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -925,13 +922,13 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -939,13 +936,13 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -953,13 +950,13 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -967,13 +964,13 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -986,13 +983,13 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1003,10 +1000,10 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1014,13 +1011,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1034,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1042,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1056,13 +1053,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1075,13 +1072,13 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1089,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1103,13 +1100,13 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1117,13 +1114,13 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1131,13 +1128,13 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1145,13 +1142,13 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1164,13 +1161,13 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1178,13 +1175,13 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1192,13 +1189,13 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1206,13 +1203,13 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1220,13 +1217,13 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1234,13 +1231,13 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1253,13 +1250,13 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1267,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1281,13 +1278,13 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1295,13 +1292,13 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1309,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1323,13 +1320,13 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1342,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1356,13 +1353,13 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1370,13 +1367,13 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1384,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1398,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1412,13 +1409,13 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1431,13 +1428,13 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1445,13 +1442,13 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1459,13 +1456,13 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,13 +1470,13 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1487,13 +1484,13 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1501,10 +1498,10 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
         <v>39</v>
@@ -1520,13 +1517,13 @@
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1534,13 +1531,13 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1548,13 +1545,13 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1562,13 +1559,13 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1576,13 +1573,13 @@
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1590,13 +1587,13 @@
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1609,13 +1606,13 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1623,13 +1620,13 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1637,10 +1634,10 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>49</v>
@@ -1651,13 +1648,13 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1665,13 +1662,13 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1679,13 +1676,13 @@
         <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1701,10 +1698,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1712,13 +1709,13 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1726,13 +1723,13 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1743,10 +1740,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1754,13 +1751,13 @@
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1768,13 +1765,13 @@
         <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1787,13 +1784,13 @@
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1801,13 +1798,13 @@
         <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1815,13 +1812,13 @@
         <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1829,13 +1826,13 @@
         <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1843,13 +1840,13 @@
         <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1857,13 +1854,13 @@
         <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1876,13 +1873,13 @@
         <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1890,13 +1887,13 @@
         <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1904,13 +1901,13 @@
         <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1921,10 +1918,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1932,13 +1929,13 @@
         <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1946,13 +1943,13 @@
         <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1965,13 +1962,13 @@
         <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1979,13 +1976,13 @@
         <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1993,13 +1990,13 @@
         <v>21</v>
       </c>
       <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
         <v>7</v>
       </c>
-      <c r="D96" t="s">
-        <v>13</v>
-      </c>
       <c r="E96" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2007,13 +2004,13 @@
         <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2021,13 +2018,13 @@
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2035,13 +2032,13 @@
         <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,13 +2051,13 @@
         <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2068,13 +2065,13 @@
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2082,13 +2079,13 @@
         <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2096,13 +2093,13 @@
         <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2113,10 +2110,10 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2127,10 +2124,10 @@
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2143,13 +2140,13 @@
         <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2157,13 +2154,13 @@
         <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2171,13 +2168,13 @@
         <v>21</v>
       </c>
       <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
         <v>7</v>
       </c>
-      <c r="D110" t="s">
-        <v>13</v>
-      </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2185,13 +2182,13 @@
         <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2199,13 +2196,13 @@
         <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2213,13 +2210,13 @@
         <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2232,13 +2229,13 @@
         <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2246,13 +2243,13 @@
         <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2260,13 +2257,13 @@
         <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2274,13 +2271,13 @@
         <v>21</v>
       </c>
       <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
         <v>12</v>
       </c>
-      <c r="D118" t="s">
-        <v>6</v>
-      </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2291,10 +2288,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2302,10 +2299,10 @@
         <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E120" t="s">
         <v>61</v>
@@ -2321,13 +2318,13 @@
         <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2335,13 +2332,13 @@
         <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2349,13 +2346,13 @@
         <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2363,13 +2360,13 @@
         <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2377,13 +2374,13 @@
         <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2391,13 +2388,13 @@
         <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2410,13 +2407,13 @@
         <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2427,10 +2424,10 @@
         <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2438,13 +2435,13 @@
         <v>21</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2452,13 +2449,13 @@
         <v>21</v>
       </c>
       <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
         <v>12</v>
       </c>
-      <c r="D132" t="s">
-        <v>6</v>
-      </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2466,13 +2463,13 @@
         <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2480,13 +2477,13 @@
         <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2499,13 +2496,13 @@
         <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2513,7 +2510,7 @@
         <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -2527,13 +2524,13 @@
         <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2544,10 +2541,10 @@
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2555,13 +2552,13 @@
         <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2569,13 +2566,13 @@
         <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2588,13 +2585,13 @@
         <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2602,13 +2599,13 @@
         <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2616,13 +2613,13 @@
         <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2630,13 +2627,13 @@
         <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2644,13 +2641,13 @@
         <v>21</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2658,13 +2655,13 @@
         <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2677,13 +2674,13 @@
         <v>21</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2691,13 +2688,13 @@
         <v>21</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E151" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2705,13 +2702,13 @@
         <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2719,13 +2716,13 @@
         <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2733,13 +2730,13 @@
         <v>21</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2747,13 +2744,13 @@
         <v>21</v>
       </c>
       <c r="C155" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
